--- a/level-2/hackerrank/phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
+++ b/level-2/hackerrank/phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E0DB5-0F1F-4696-88DD-EB110C8723D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B483145-9BA6-41B7-9059-8EA304C3D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 2 - data structures" sheetId="14" r:id="rId1"/>
+    <sheet name="data-structures" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -570,12 +583,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -588,10 +601,7 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,12 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,81 +1132,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C55)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G55)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H55)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1221,17 +1225,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1242,16 +1246,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1272,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1293,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1310,11 +1314,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H55" si="0">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H55" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1331,11 +1335,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1352,11 +1356,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1373,11 +1377,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1388,17 +1392,17 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1415,11 +1419,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1436,11 +1440,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1457,11 +1461,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1478,11 +1482,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1499,11 +1503,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1514,17 +1518,17 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1541,11 +1545,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1562,11 +1566,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1577,17 +1581,17 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1604,11 +1608,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1625,11 +1629,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1646,11 +1650,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1667,11 +1671,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1688,11 +1692,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1709,11 +1713,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1730,11 +1734,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1751,11 +1755,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1766,17 +1770,17 @@
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1787,17 +1791,17 @@
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1814,11 +1818,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1835,11 +1839,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1850,17 +1854,17 @@
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1871,17 +1875,17 @@
       <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1898,11 +1902,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1913,17 +1917,17 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1940,11 +1944,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1955,17 +1959,17 @@
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1982,11 +1986,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2003,11 +2007,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2024,11 +2028,11 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2045,11 +2049,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2060,17 +2064,17 @@
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2081,17 +2085,17 @@
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2102,17 +2106,17 @@
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2123,17 +2127,17 @@
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2150,11 +2154,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2165,17 +2169,17 @@
       <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2192,11 +2196,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2213,11 +2217,11 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2234,11 +2238,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2255,11 +2259,11 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2270,17 +2274,17 @@
       <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2291,17 +2295,17 @@
       <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2312,17 +2316,17 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="14">
-        <f>SUM(C56:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="11" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="7">
+        <f t="shared" ref="H56:H87" si="2">SUM(C56:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2333,17 +2337,17 @@
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="14">
-        <f>SUM(C57:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="15"/>
-      <c r="J57" s="11" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2354,17 +2358,17 @@
       <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="14">
-        <f>SUM(C58:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="15"/>
-      <c r="J58" s="11" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2375,17 +2379,17 @@
       <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="14">
-        <f>SUM(C59:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="11" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2396,17 +2400,17 @@
       <c r="B60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="14">
-        <f>SUM(C60:G60)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="11" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2417,17 +2421,17 @@
       <c r="B61" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="14">
-        <f>SUM(C61:G61)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="11" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2438,17 +2442,17 @@
       <c r="B62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="14">
-        <f>SUM(C62:G62)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="15"/>
-      <c r="J62" s="11" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2459,17 +2463,17 @@
       <c r="B63" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="14">
-        <f>SUM(C63:G63)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="11" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2480,17 +2484,17 @@
       <c r="B64" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="14">
-        <f>SUM(C64:G64)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="15"/>
-      <c r="J64" s="11" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2501,17 +2505,17 @@
       <c r="B65" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="14">
-        <f>SUM(C65:G65)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="11" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2522,17 +2526,17 @@
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="14">
-        <f>SUM(C66:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="11" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2543,17 +2547,17 @@
       <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="14">
-        <f>SUM(C67:G67)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="11" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2564,17 +2568,17 @@
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="14">
-        <f>SUM(C68:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="11" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2585,17 +2589,17 @@
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="14">
-        <f>SUM(C69:G69)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="11" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2606,17 +2610,17 @@
       <c r="B70" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="14">
-        <f>SUM(C70:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="11" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2627,17 +2631,17 @@
       <c r="B71" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="14">
-        <f>SUM(C71:G71)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="15"/>
-      <c r="J71" s="11" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2648,17 +2652,17 @@
       <c r="B72" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="14">
-        <f>SUM(C72:G72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="11" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2669,17 +2673,17 @@
       <c r="B73" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="14">
-        <f>SUM(C73:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="15"/>
-      <c r="J73" s="11" t="s">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="10" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2690,16 +2694,16 @@
       <c r="B74" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="14">
-        <f>SUM(C74:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="12" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2710,16 +2714,16 @@
       <c r="B75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="14">
-        <f>SUM(C75:G75)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="12" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2730,16 +2734,16 @@
       <c r="B76" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="14">
-        <f>SUM(C76:G76)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="12" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2750,16 +2754,16 @@
       <c r="B77" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="14">
-        <f>SUM(C77:G77)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="12" t="s">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2770,16 +2774,16 @@
       <c r="B78" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="14">
-        <f>SUM(C78:G78)</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="12" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2790,16 +2794,16 @@
       <c r="B79" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="14">
-        <f>SUM(C79:G79)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="12" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2810,16 +2814,16 @@
       <c r="B80" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="14">
-        <f>SUM(C80:G80)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="12" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2830,16 +2834,16 @@
       <c r="B81" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="14">
-        <f>SUM(C81:G81)</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="12" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2850,16 +2854,16 @@
       <c r="B82" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="14">
-        <f>SUM(C82:G82)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="12" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2870,16 +2874,16 @@
       <c r="B83" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="14">
-        <f>SUM(C83:G83)</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="12" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2890,16 +2894,16 @@
       <c r="B84" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="14">
-        <f>SUM(C84:G84)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="12" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2910,16 +2914,16 @@
       <c r="B85" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="14">
-        <f>SUM(C85:G85)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="12" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2930,16 +2934,16 @@
       <c r="B86" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="14">
-        <f>SUM(C86:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="12" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2950,16 +2954,16 @@
       <c r="B87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="14">
-        <f>SUM(C87:G87)</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="12" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2970,16 +2974,16 @@
       <c r="B88" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="14">
-        <f>SUM(C88:G88)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="12" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7">
+        <f t="shared" ref="H88:H119" si="3">SUM(C88:G88)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2990,16 +2994,16 @@
       <c r="B89" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="14">
-        <f>SUM(C89:G89)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="12" t="s">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3010,16 +3014,16 @@
       <c r="B90" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="14">
-        <f>SUM(C90:G90)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="12" t="s">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3030,16 +3034,16 @@
       <c r="B91" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="14">
-        <f>SUM(C91:G91)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="12" t="s">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3050,16 +3054,16 @@
       <c r="B92" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="14">
-        <f>SUM(C92:G92)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="12" t="s">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3070,16 +3074,16 @@
       <c r="B93" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="14">
-        <f>SUM(C93:G93)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="12" t="s">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3090,16 +3094,16 @@
       <c r="B94" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="14">
-        <f>SUM(C94:G94)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="12" t="s">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3110,16 +3114,16 @@
       <c r="B95" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="14">
-        <f>SUM(C95:G95)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="12" t="s">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3130,16 +3134,16 @@
       <c r="B96" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="14">
-        <f>SUM(C96:G96)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="12" t="s">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3150,16 +3154,16 @@
       <c r="B97" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="14">
-        <f>SUM(C97:G97)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="12" t="s">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3170,16 +3174,16 @@
       <c r="B98" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="14">
-        <f>SUM(C98:G98)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="12" t="s">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3190,16 +3194,16 @@
       <c r="B99" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="14">
-        <f>SUM(C99:G99)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="12" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3210,16 +3214,16 @@
       <c r="B100" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="14">
-        <f>SUM(C100:G100)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="12" t="s">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3230,16 +3234,16 @@
       <c r="B101" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="14">
-        <f>SUM(C101:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="12" t="s">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3250,16 +3254,16 @@
       <c r="B102" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="14">
-        <f>SUM(C102:G102)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="12" t="s">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3270,16 +3274,16 @@
       <c r="B103" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="14">
-        <f>SUM(C103:G103)</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="12" t="s">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3290,16 +3294,16 @@
       <c r="B104" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="14">
-        <f>SUM(C104:G104)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="12" t="s">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3310,16 +3314,16 @@
       <c r="B105" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="14">
-        <f>SUM(C105:G105)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="12" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3330,16 +3334,16 @@
       <c r="B106" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="14">
-        <f>SUM(C106:G106)</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="12" t="s">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3350,16 +3354,16 @@
       <c r="B107" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="14">
-        <f>SUM(C107:G107)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="12" t="s">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3370,16 +3374,16 @@
       <c r="B108" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="14">
-        <f>SUM(C108:G108)</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="12" t="s">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3390,16 +3394,16 @@
       <c r="B109" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="14">
-        <f>SUM(C109:G109)</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="12" t="s">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3410,16 +3414,16 @@
       <c r="B110" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="14">
-        <f>SUM(C110:G110)</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="12" t="s">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3430,16 +3434,16 @@
       <c r="B111" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="14">
-        <f>SUM(C111:G111)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="12" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3450,16 +3454,16 @@
       <c r="B112" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="14">
-        <f>SUM(C112:G112)</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="12" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3470,16 +3474,16 @@
       <c r="B113" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="14">
-        <f>SUM(C113:G113)</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="12" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3490,16 +3494,16 @@
       <c r="B114" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="14">
-        <f>SUM(C114:G114)</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="12" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3510,16 +3514,16 @@
       <c r="B115" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="14">
-        <f>SUM(C115:G115)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="12" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3530,16 +3534,16 @@
       <c r="B116" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="14">
-        <f>SUM(C116:G116)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="12" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3550,16 +3554,16 @@
       <c r="B117" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="14">
-        <f>SUM(C117:G117)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="12" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3570,16 +3574,16 @@
       <c r="B118" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="14">
-        <f>SUM(C118:G118)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="12" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>69</v>
       </c>
     </row>

--- a/level-2/hackerrank/phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
+++ b/level-2/hackerrank/phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B483145-9BA6-41B7-9059-8EA304C3D699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7A57DC-35B0-4EEA-9BCE-A1A3C6FC4EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data-structures" sheetId="14" r:id="rId1"/>
+    <sheet name="hackerrank data-structures" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1186,27 +1186,27 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C55)</f>
+        <f>AVERAGE(C4:C155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G155)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H155)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1314,7 +1314,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H55" si="1">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H55" si="0">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1335,7 +1335,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1356,7 +1356,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1377,7 +1377,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1398,7 +1398,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1419,7 +1419,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -1440,7 +1440,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
@@ -1461,7 +1461,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
@@ -1482,7 +1482,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
@@ -1503,7 +1503,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1524,7 +1524,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1545,7 +1545,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1566,7 +1566,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1587,7 +1587,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1608,7 +1608,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1629,7 +1629,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -1650,7 +1650,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -1671,7 +1671,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -1692,7 +1692,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1713,7 +1713,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -1734,7 +1734,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
@@ -1755,7 +1755,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
@@ -1776,7 +1776,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
@@ -1797,7 +1797,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
@@ -1818,7 +1818,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
@@ -1839,7 +1839,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
@@ -1860,7 +1860,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
@@ -1881,7 +1881,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1902,7 +1902,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
@@ -1923,7 +1923,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
@@ -1944,7 +1944,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
@@ -1965,7 +1965,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
@@ -1986,7 +1986,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
@@ -2007,7 +2007,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
@@ -2028,7 +2028,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
@@ -2049,7 +2049,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
@@ -2070,7 +2070,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
@@ -2091,7 +2091,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
@@ -2112,7 +2112,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
@@ -2133,7 +2133,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
@@ -2154,7 +2154,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
@@ -2175,7 +2175,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
@@ -2196,7 +2196,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
@@ -2217,7 +2217,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
@@ -2238,7 +2238,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
@@ -2259,7 +2259,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
@@ -2280,7 +2280,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
@@ -2301,7 +2301,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
@@ -2322,7 +2322,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" ref="H56:H87" si="2">SUM(C56:G56)</f>
+        <f t="shared" ref="H56:H87" si="1">SUM(C56:G56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
@@ -2343,7 +2343,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
@@ -2364,7 +2364,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
@@ -2385,7 +2385,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
@@ -2406,7 +2406,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
@@ -2427,7 +2427,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
@@ -2448,7 +2448,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
@@ -2469,7 +2469,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
@@ -2490,7 +2490,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
@@ -2511,7 +2511,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
@@ -2532,7 +2532,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
@@ -2553,7 +2553,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
@@ -2574,7 +2574,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
@@ -2595,7 +2595,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
@@ -2616,7 +2616,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
@@ -2637,7 +2637,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
@@ -2658,7 +2658,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
@@ -2679,7 +2679,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
@@ -2700,7 +2700,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J74" s="11" t="s">
@@ -2720,7 +2720,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J75" s="11" t="s">
@@ -2740,7 +2740,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J76" s="11" t="s">
@@ -2760,7 +2760,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J77" s="11" t="s">
@@ -2780,7 +2780,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J78" s="11" t="s">
@@ -2800,7 +2800,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -2820,7 +2820,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J80" s="11" t="s">
@@ -2840,7 +2840,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J81" s="11" t="s">
@@ -2860,7 +2860,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J82" s="11" t="s">
@@ -2880,7 +2880,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J83" s="11" t="s">
@@ -2900,7 +2900,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J84" s="11" t="s">
@@ -2920,7 +2920,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J85" s="11" t="s">
@@ -2940,7 +2940,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J86" s="11" t="s">
@@ -2960,7 +2960,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -2980,7 +2980,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" ref="H88:H119" si="3">SUM(C88:G88)</f>
+        <f t="shared" ref="H88:H118" si="2">SUM(C88:G88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -3000,7 +3000,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -3020,7 +3020,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -3040,7 +3040,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J91" s="11" t="s">
@@ -3060,7 +3060,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J92" s="11" t="s">
@@ -3080,7 +3080,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J93" s="11" t="s">
@@ -3100,7 +3100,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J94" s="11" t="s">
@@ -3120,7 +3120,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J95" s="11" t="s">
@@ -3140,7 +3140,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J96" s="11" t="s">
@@ -3160,7 +3160,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J97" s="11" t="s">
@@ -3180,7 +3180,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J98" s="11" t="s">
@@ -3200,7 +3200,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J99" s="11" t="s">
@@ -3220,7 +3220,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J100" s="11" t="s">
@@ -3240,7 +3240,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J101" s="11" t="s">
@@ -3260,7 +3260,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
@@ -3280,7 +3280,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J103" s="11" t="s">
@@ -3300,7 +3300,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J104" s="11" t="s">
@@ -3320,7 +3320,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -3340,7 +3340,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J106" s="11" t="s">
@@ -3360,7 +3360,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J107" s="11" t="s">
@@ -3380,7 +3380,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J108" s="11" t="s">
@@ -3400,7 +3400,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J109" s="11" t="s">
@@ -3420,7 +3420,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J110" s="11" t="s">
@@ -3440,7 +3440,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J111" s="11" t="s">
@@ -3460,7 +3460,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J112" s="11" t="s">
@@ -3480,7 +3480,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -3500,7 +3500,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -3520,7 +3520,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J115" s="11" t="s">
@@ -3540,7 +3540,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J116" s="11" t="s">
@@ -3560,7 +3560,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J117" s="11" t="s">
@@ -3580,7 +3580,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J118" s="11" t="s">
@@ -3600,101 +3600,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
